--- a/biology/Botanique/Pseudo-nitzschia/Pseudo-nitzschia.xlsx
+++ b/biology/Botanique/Pseudo-nitzschia/Pseudo-nitzschia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les micro-algues du genre Pseudo-nitzschia sont des Diatomées de la famille des Bacillariaceae. Certaines espèces de ce genre produisent de l'acide domoïque, une neurotoxine responsable d'intoxications alimentaires (ASP pour Amnesic Shellfish Poisoning). Le premier cas connu d'intoxication à la suite de la consommation de coquillages contaminés remonte à 1987, à l'Île-du-Prince-Édouard.
-Le genre est cosmopolite et fait l'objet de nombreuses études scientifiques depuis la crise de 1987. En France, le REPHY (Réseau de surveillance du phytoplancton et des phytotoxines) est chargé de sa surveillance dans les eaux côtières[1].
+Le genre est cosmopolite et fait l'objet de nombreuses études scientifiques depuis la crise de 1987. En France, le REPHY (Réseau de surveillance du phytoplancton et des phytotoxines) est chargé de sa surveillance dans les eaux côtières.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (14 déc. 2010)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (14 déc. 2010) :
 Pseudo-nitzschia americana (Hasle) Fryxell
 Pseudo-nitzschia antarctica Manguin
 Pseudo-nitzschia arenysensis Quijano-Scheggia, Garcés, Lundholm
@@ -557,7 +571,7 @@
 Pseudo-nitzschia turgidula (Hustedt) G.R.Hasle
 Pseudo-nitzschia turgidula (Hustedt) Hasle
 Pseudo-nitzschia turgiduloides G.R.Hasle
-Selon NCBI  (14 déc. 2010)[3] :
+Selon NCBI  (14 déc. 2010) :
 Pseudo-nitzschia americana
 Pseudo-nitzschia arenysensis
 Pseudo-nitzschia australis
@@ -588,7 +602,7 @@
 Pseudo-nitzschia subpacifica
 Pseudo-nitzschia turgidula
 Pseudo-nitzschia turgiduloides
-Selon World Register of Marine Species                               (14 déc. 2010)[4] :
+Selon World Register of Marine Species                               (14 déc. 2010) :
 Pseudo-nitzschia americana (Hasle) Fryxell, 1993
 Pseudo-nitzschia arenysensis Quijano-Scheggia, Garcés, Lundholm, 2009
 Pseudo-nitzschia australis Frenguelli, 1939
@@ -622,7 +636,7 @@
 Pseudo-nitzschia subpacifica (Hasle) Hasle, 1993
 Pseudo-nitzschia turgidula (Hustedt, 1958) Hasle, 1993
 Pseudo-nitzschia turgiduloides (G.R. Hasle) G.R. Hasle
-Selon ITIS      (14 déc. 2010)[5] :
+Selon ITIS      (14 déc. 2010) :
 Pseudo-nitzschia antarctica Manguin
 Pseudo-nitzschia australis Freng.
 Pseudo-nitzschia delicatissima (Cleve) Heiden in Heiden &amp; Kolbe
